--- a/Invoice/Open Invoice/Main.rvl.xlsx
+++ b/Invoice/Open Invoice/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="86">
   <si>
     <t>Flow</t>
   </si>
@@ -208,6 +208,69 @@
   </si>
   <si>
     <t>Invoice Id</t>
+  </si>
+  <si>
+    <t>****Test gets the test contact name from the global JSON, navigates to the contact record, and opens it.</t>
+  </si>
+  <si>
+    <t>*****This test can run prior to another test that requires the test to start in a contact record.</t>
+  </si>
+  <si>
+    <t>****Test gets the test Invoice ID from the global JSON, navigates to the invoice record, and opens it.</t>
+  </si>
+  <si>
+    <t>*****This test can run prior to another test that requires the test to start in an invoice record.</t>
+  </si>
+  <si>
+    <t>Get Contact Name</t>
+  </si>
+  <si>
+    <t>Get ContactName from JSON file.</t>
+  </si>
+  <si>
+    <t>GetProperty</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>defValue</t>
+  </si>
+  <si>
+    <t>configPath</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\JSON\Global.json</t>
+  </si>
+  <si>
+    <t>Contact Name:</t>
+  </si>
+  <si>
+    <t>Get Invoice ID</t>
+  </si>
+  <si>
+    <t>Get InvoiceID from JSON file.</t>
+  </si>
+  <si>
+    <t>Invoice ID:</t>
+  </si>
+  <si>
+    <t>Search for invoice and open it.</t>
+  </si>
+  <si>
+    <t>UX_Grid</t>
+  </si>
+  <si>
+    <t>clickType</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>LD</t>
+  </si>
+  <si>
+    <t>Select Batch</t>
   </si>
 </sst>
 </file>
@@ -228,7 +291,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="178">
+  <borders count="191">
     <border>
       <left/>
       <right/>
@@ -413,11 +476,24 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -596,6 +672,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="175" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="180" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="181" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="184" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="187" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="188" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="189" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="190" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H45"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -645,125 +734,151 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="161"/>
+      <c r="A2" s="164"/>
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="164"/>
+      <c r="A3" s="163"/>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="179"/>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="178"/>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="172" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="171"/>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="163"/>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="172"/>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="171"/>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="170"/>
-    </row>
     <row r="10">
-      <c r="A10" s="169"/>
+      <c r="A10" s="170"/>
     </row>
     <row r="11">
-      <c r="A11" s="168" t="s">
+      <c r="A11" s="187" t="s">
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="167"/>
+      <c r="A12" s="186"/>
       <c r="B12" t="s">
         <v>3</v>
       </c>
@@ -780,19 +895,19 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="166"/>
+      <c r="A13" s="185"/>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
         <v>33</v>
@@ -801,348 +916,475 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="165"/>
+      <c r="A14" s="184"/>
       <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="32"/>
+      <c r="A15" s="183"/>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="174"/>
+      <c r="A16" s="182"/>
       <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
       </c>
       <c r="G16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="181"/>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="180"/>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="175"/>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="19">
+      <c r="A19" s="169"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="168" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="167"/>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="166"/>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="165"/>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D24" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="32"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="174"/>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="175"/>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
         <v>51</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E26" t="s">
         <v>52</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F26" t="s">
         <v>44</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="33" t="s">
+    <row r="27">
+      <c r="A27" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="36" t="s">
+      <c r="B27" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E27" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F27" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G27" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="40"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="173"/>
-      <c r="B19" t="s">
+      <c r="H27" s="40"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="173"/>
+      <c r="B28" t="s">
         <v>12</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E28" t="s">
         <v>46</v>
       </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="43" t="s">
+    <row r="29">
+      <c r="A29" s="189"/>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="41"/>
+      <c r="B30" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D30" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E30" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="48"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="51" t="s">
+      <c r="F30" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="48"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="57"/>
+      <c r="B31" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="56"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="57"/>
-      <c r="B22" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="60" t="s">
+      <c r="D31" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E31" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="62" t="s">
+      <c r="F31" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="63" t="s">
+      <c r="G31" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="64"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="176"/>
-      <c r="B23" t="s">
+      <c r="H31" s="64"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="176"/>
+      <c r="B32" t="s">
         <v>12</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E32" t="s">
         <v>59</v>
       </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="177"/>
-      <c r="B24" t="s">
+    <row r="33">
+      <c r="A33" s="177"/>
+      <c r="B33" t="s">
         <v>12</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E33" t="s">
         <v>60</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F33" t="s">
         <v>20</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="72"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="73"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="80"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="81"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="88"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="89"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="96"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="97"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="104"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="105"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="112"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="113"/>
-      <c r="B31" s="114"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="120"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="121"/>
-      <c r="B32" s="122"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="128"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="129"/>
-      <c r="B33" s="130"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="136"/>
-    </row>
     <row r="34">
-      <c r="A34" s="137"/>
-      <c r="B34" s="138"/>
-      <c r="C34" s="139"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="143"/>
-      <c r="H34" s="144"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="72"/>
     </row>
     <row r="35">
-      <c r="A35" s="145"/>
-      <c r="B35" s="146"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="148"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="152"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="80"/>
     </row>
     <row r="36">
-      <c r="A36" s="153"/>
-      <c r="B36" s="154"/>
-      <c r="C36" s="155"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="160"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="88"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="89"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="96"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="97"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="104"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="105"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="112"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="113"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="119"/>
+      <c r="H40" s="120"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="121"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="127"/>
+      <c r="H41" s="128"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="129"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="135"/>
+      <c r="H42" s="136"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="137"/>
+      <c r="B43" s="138"/>
+      <c r="C43" s="139"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="141"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="143"/>
+      <c r="H43" s="144"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="145"/>
+      <c r="B44" s="146"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="148"/>
+      <c r="E44" s="149"/>
+      <c r="F44" s="150"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="152"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="153"/>
+      <c r="B45" s="154"/>
+      <c r="C45" s="155"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="157"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="159"/>
+      <c r="H45" s="160"/>
     </row>
   </sheetData>
 </worksheet>
